--- a/ArkWebApp/src/assets/files/templates/NavQuarterlyUploadTemplate.xlsx
+++ b/ArkWebApp/src/assets/files/templates/NavQuarterlyUploadTemplate.xlsx
@@ -5,12 +5,13 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgosalia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repo\Ark-WebUI\ArkWebApp\src\assets\files\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EF7EED-24EB-44A7-887B-F40B58DA35DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC67B82A-26E8-408E-968E-2CB41B9D5594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C4DEDF0A-76DA-43B5-A336-FA0AFA6A6B16}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C4DEDF0A-76DA-43B5-A336-FA0AFA6A6B16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Fund Hedging</t>
   </si>
@@ -238,9 +239,6 @@
   </si>
   <si>
     <t>Total Operating exp (excluded GPS) ITD</t>
-  </si>
-  <si>
-    <t>Performance fee paid</t>
   </si>
   <si>
     <t>GPS ITD</t>
@@ -652,30 +650,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E9AB30-9C00-4DA9-B8B8-8591DD4EBC6B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.1796875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="41.453125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="8.81640625" style="1"/>
+    <col min="8" max="8" width="28.21875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="41.44140625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -718,12 +716,9 @@
       <c r="N1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>68</v>
-      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6f6bmjDpXE/B6el6ms4sOCu9PAk1vOJL+5gj4WmDkaG1DdkkfIsEGxKkDvDnkyEUF3t+QRZiCmXK591GSVerxA==" saltValue="tLeKV6AbC2z21BvXTAf0Pw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <dataValidations count="10">
     <dataValidation type="date" operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{D08F1287-6FDD-4FAF-A6E4-DE6D102FCAB3}">
       <formula1>40909</formula1>
@@ -745,7 +740,7 @@
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{6A740DF4-617F-45B1-AB9D-D59292EBC1EC}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="C2:D1048576 F2:G1048576 K1:M1 N1:N1048576 O1:O1048576" xr:uid="{BF3B5D86-28C3-4CAD-8483-DF2A4EA30B61}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="C2:D1048576 F2:G1048576 K1:M1 N1:N1048576" xr:uid="{BF3B5D86-28C3-4CAD-8483-DF2A4EA30B61}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="decimal" errorStyle="information" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{B5386FCD-9C79-4616-9156-3C064D160E5B}">
@@ -781,277 +776,277 @@
       <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>63</v>
       </c>
@@ -1062,6 +1057,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010017EB258DADFA3746A36EC080AC089D83" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7ebb95de695edb82866e27aa90a207c8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5e1f9c12-bc96-4798-a342-bb349a93830a" xmlns:ns3="e71fa759-47f8-4a70-96bd-5964b1ae8857" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e86bd6f45c4d31b841dbab4160863d0" ns2:_="" ns3:_="">
     <xsd:import namespace="5e1f9c12-bc96-4798-a342-bb349a93830a"/>
@@ -1232,15 +1236,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1261,6 +1256,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27D307A0-5037-428A-99CA-08384DEEE293}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F57BD9C-43FE-499F-B6CD-EF500BF99DC9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1279,14 +1282,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27D307A0-5037-428A-99CA-08384DEEE293}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C53ECC68-04E7-452A-99A3-10030F701C32}">
   <ds:schemaRefs>

--- a/ArkWebApp/src/assets/files/templates/NavQuarterlyUploadTemplate.xlsx
+++ b/ArkWebApp/src/assets/files/templates/NavQuarterlyUploadTemplate.xlsx
@@ -5,13 +5,13 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repo\Ark-WebUI\ArkWebApp\src\assets\files\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgosalia\source\repos\Ark-WebUI\ArkWebApp\src\assets\files\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC67B82A-26E8-408E-968E-2CB41B9D5594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14ABE11-8CD4-4A73-B371-5BBA217E155F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="q1lHLFgI3V0lIZanOpCZDH3VeDEo/pS1eqcOp4LkYuUtkhvfYeHTTh9Q41lYrTKLli8ZA0oo0uHSqDr09zK9yQ==" workbookSaltValue="oZXHNJT8w0ncv4B8GU/utA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C4DEDF0A-76DA-43B5-A336-FA0AFA6A6B16}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C4DEDF0A-76DA-43B5-A336-FA0AFA6A6B16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Fund Hedging</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t>GPS ITD</t>
+  </si>
+  <si>
+    <t>Co-Investments</t>
+  </si>
+  <si>
+    <t>Strategy/Currency</t>
   </si>
 </sst>
 </file>
@@ -249,8 +255,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -312,7 +318,7 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
@@ -324,7 +330,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -650,30 +656,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E9AB30-9C00-4DA9-B8B8-8591DD4EBC6B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.21875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="41.44140625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.77734375" style="1"/>
+    <col min="8" max="8" width="28.1796875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="41.453125" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -716,23 +722,16 @@
       <c r="N1" s="6" t="s">
         <v>67</v>
       </c>
+      <c r="O1" s="6" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
-  <dataValidations count="10">
-    <dataValidation type="date" operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{D08F1287-6FDD-4FAF-A6E4-DE6D102FCAB3}">
+  <sheetProtection algorithmName="SHA-512" hashValue="vHBM5wAdMot3bo0ecRG0xopdwOHH0KYdMBTbYWpHz+MsWl4pL6lAn/UboLQliTZ0pCux6ZVlfwsr0pGYz8TLWQ==" saltValue="r5crd5RnPfdx6b/lJII/cA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <dataValidations count="6">
+    <dataValidation type="date" operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{D08F1287-6FDD-4FAF-A6E4-DE6D102FCAB3}">
       <formula1>40909</formula1>
     </dataValidation>
-    <dataValidation type="decimal" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{838E2158-FD02-4BEF-AFC8-D14BAE2AECAB}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:J1" xr:uid="{D3B69262-4941-4F38-8504-C4E49D29670D}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="F1 C1:D1" xr:uid="{2E33BD68-EDA5-4ACC-9C63-C82E1FAB5AAF}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{0AF81981-3554-49B3-8355-DC1D8DBE7A01}"/>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:M1048576" xr:uid="{036B4034-F449-4ED6-8518-CAFB951D49DA}">
       <formula1>-99999999999</formula1>
       <formula2>99999999999</formula2>
@@ -740,7 +739,7 @@
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{6A740DF4-617F-45B1-AB9D-D59292EBC1EC}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="C2:D1048576 F2:G1048576 K1:M1 N1:N1048576" xr:uid="{BF3B5D86-28C3-4CAD-8483-DF2A4EA30B61}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="C2:D1048576 F2:G1048576 N2:N1048576" xr:uid="{BF3B5D86-28C3-4CAD-8483-DF2A4EA30B61}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="decimal" errorStyle="information" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{B5386FCD-9C79-4616-9156-3C064D160E5B}">
@@ -754,12 +753,18 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{714EBB59-5F74-4DA8-8E74-FF74DE9E9E8D}">
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$54</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1BCD598B-5CD5-4EE4-91CD-864C18D74E4D}">
+          <x14:formula1>
+            <xm:f>Sheet2!$B$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>O2:O1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -770,283 +775,287 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC597C6-0D63-4585-B286-31FA7873C909}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:A54"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>63</v>
       </c>
@@ -1057,15 +1066,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010017EB258DADFA3746A36EC080AC089D83" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7ebb95de695edb82866e27aa90a207c8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5e1f9c12-bc96-4798-a342-bb349a93830a" xmlns:ns3="e71fa759-47f8-4a70-96bd-5964b1ae8857" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e86bd6f45c4d31b841dbab4160863d0" ns2:_="" ns3:_="">
     <xsd:import namespace="5e1f9c12-bc96-4798-a342-bb349a93830a"/>
@@ -1236,6 +1236,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1256,14 +1265,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27D307A0-5037-428A-99CA-08384DEEE293}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F57BD9C-43FE-499F-B6CD-EF500BF99DC9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1282,6 +1283,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27D307A0-5037-428A-99CA-08384DEEE293}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C53ECC68-04E7-452A-99A3-10030F701C32}">
   <ds:schemaRefs>

--- a/ArkWebApp/src/assets/files/templates/NavQuarterlyUploadTemplate.xlsx
+++ b/ArkWebApp/src/assets/files/templates/NavQuarterlyUploadTemplate.xlsx
@@ -8,8 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgosalia\source\repos\Ark-WebUI\ArkWebApp\src\assets\files\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14ABE11-8CD4-4A73-B371-5BBA217E155F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="q1lHLFgI3V0lIZanOpCZDH3VeDEo/pS1eqcOp4LkYuUtkhvfYeHTTh9Q41lYrTKLli8ZA0oo0uHSqDr09zK9yQ==" workbookSaltValue="oZXHNJT8w0ncv4B8GU/utA==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5D8753-077D-41B8-83CB-41A325963279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="g/KCQoD2L8NJHAkSVohXq1i/zgKhGt4/I7H5CrimIeGPPplxPAHvz3i7DE56jHThlyo8NRR/WOMQa9pRnt9Nbg==" workbookSaltValue="dm5O2aOcr3ootGB5Opp0sw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C4DEDF0A-76DA-43B5-A336-FA0AFA6A6B16}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Fund Hedging</t>
   </si>
@@ -235,9 +235,6 @@
     <t>Total foreign exchange movements ITD</t>
   </si>
   <si>
-    <t>Net forward contract movements ITD</t>
-  </si>
-  <si>
     <t>Total Operating exp (excluded GPS) ITD</t>
   </si>
   <si>
@@ -248,6 +245,27 @@
   </si>
   <si>
     <t>Strategy/Currency</t>
+  </si>
+  <si>
+    <t>Finance Cost ITD</t>
+  </si>
+  <si>
+    <t>Net forward contract movements ITD (realised)</t>
+  </si>
+  <si>
+    <t>Net forward contract movements ITD (unrealised)</t>
+  </si>
+  <si>
+    <t>Capsol</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>EUR</t>
   </si>
 </sst>
 </file>
@@ -293,7 +311,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +321,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,7 +348,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
@@ -338,6 +362,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{FE47A805-E6B0-429A-B510-90BB5F7B36AB}"/>
@@ -656,7 +683,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E9AB30-9C00-4DA9-B8B8-8591DD4EBC6B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -665,87 +692,97 @@
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.1796875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="41.453125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="8.81640625" style="1"/>
+    <col min="2" max="2" width="16.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46" style="2" customWidth="1"/>
+    <col min="9" max="9" width="28.1796875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.81640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="41.453125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="43.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="41.453125" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>69</v>
+      <c r="P1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vHBM5wAdMot3bo0ecRG0xopdwOHH0KYdMBTbYWpHz+MsWl4pL6lAn/UboLQliTZ0pCux6ZVlfwsr0pGYz8TLWQ==" saltValue="r5crd5RnPfdx6b/lJII/cA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Erk4vjQoRa/ftVMimliMCBVjXjuk4/Xnd2hALZOSCmmDJT+Ijk+RmzjQ8nM6qbRxvdtoOBMXJVF4oJI1dPjXlQ==" saltValue="/5XnAHD3skw9dpEflXca6Q==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <dataValidations count="6">
-    <dataValidation type="date" operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{D08F1287-6FDD-4FAF-A6E4-DE6D102FCAB3}">
+    <dataValidation type="date" operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{D08F1287-6FDD-4FAF-A6E4-DE6D102FCAB3}">
       <formula1>40909</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:M1048576" xr:uid="{036B4034-F449-4ED6-8518-CAFB951D49DA}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576 P2:P1048576 Q2:Q1048576 M2:M1048576" xr:uid="{036B4034-F449-4ED6-8518-CAFB951D49DA}">
       <formula1>-99999999999</formula1>
       <formula2>99999999999</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{6A740DF4-617F-45B1-AB9D-D59292EBC1EC}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{6A740DF4-617F-45B1-AB9D-D59292EBC1EC}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="C2:D1048576 F2:G1048576 N2:N1048576" xr:uid="{BF3B5D86-28C3-4CAD-8483-DF2A4EA30B61}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="G2:H1048576 D2:E1048576" xr:uid="{BF3B5D86-28C3-4CAD-8483-DF2A4EA30B61}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" errorStyle="information" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{B5386FCD-9C79-4616-9156-3C064D160E5B}">
+    <dataValidation type="decimal" errorStyle="information" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{B5386FCD-9C79-4616-9156-3C064D160E5B}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:J1048576" xr:uid="{E1AA2747-7A12-47ED-B962-D6D2B0DAED02}">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576 J2:J1048576 K2:K1048576 O2:O1048576" xr:uid="{E1AA2747-7A12-47ED-B962-D6D2B0DAED02}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -762,9 +799,9 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1BCD598B-5CD5-4EE4-91CD-864C18D74E4D}">
           <x14:formula1>
-            <xm:f>Sheet2!$B$1</xm:f>
+            <xm:f>Sheet2!$B$1:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>O2:O1048576</xm:sqref>
+          <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -778,7 +815,7 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -792,27 +829,39 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B2" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B3" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B4" s="7" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1066,6 +1115,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="e71fa759-47f8-4a70-96bd-5964b1ae8857">
+      <UserInfo>
+        <DisplayName>Jean Wai</DisplayName>
+        <AccountId>29</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Shubh Gosalia</DisplayName>
+        <AccountId>31</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010017EB258DADFA3746A36EC080AC089D83" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7ebb95de695edb82866e27aa90a207c8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5e1f9c12-bc96-4798-a342-bb349a93830a" xmlns:ns3="e71fa759-47f8-4a70-96bd-5964b1ae8857" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e86bd6f45c4d31b841dbab4160863d0" ns2:_="" ns3:_="">
     <xsd:import namespace="5e1f9c12-bc96-4798-a342-bb349a93830a"/>
@@ -1236,7 +1304,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1245,26 +1313,17 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="e71fa759-47f8-4a70-96bd-5964b1ae8857">
-      <UserInfo>
-        <DisplayName>Jean Wai</DisplayName>
-        <AccountId>29</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Shubh Gosalia</DisplayName>
-        <AccountId>31</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C53ECC68-04E7-452A-99A3-10030F701C32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e71fa759-47f8-4a70-96bd-5964b1ae8857"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F57BD9C-43FE-499F-B6CD-EF500BF99DC9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1283,20 +1342,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27D307A0-5037-428A-99CA-08384DEEE293}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C53ECC68-04E7-452A-99A3-10030F701C32}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e71fa759-47f8-4a70-96bd-5964b1ae8857"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ArkWebApp/src/assets/files/templates/NavQuarterlyUploadTemplate.xlsx
+++ b/ArkWebApp/src/assets/files/templates/NavQuarterlyUploadTemplate.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgosalia\source\repos\Ark-WebUI\ArkWebApp\src\assets\files\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rvanumamalai\source\repos\Ark-WebUI New\Ark-WebUI\ArkWebApp\src\assets\files\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5D8753-077D-41B8-83CB-41A325963279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="g/KCQoD2L8NJHAkSVohXq1i/zgKhGt4/I7H5CrimIeGPPplxPAHvz3i7DE56jHThlyo8NRR/WOMQa9pRnt9Nbg==" workbookSaltValue="dm5O2aOcr3ootGB5Opp0sw==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE88C657-C7B1-41F2-8972-9FC47E707AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="JSQko46+jU+85WVrn5UxPvUmaX0+Fv6Vzi5LAy5b/M2TP3umRVmCrOCUXY7YaHXv2yd3F7smlBVq+LYbgOpZiQ==" workbookSaltValue="jTPssRUY1nPF9TJYKk0SNw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C4DEDF0A-76DA-43B5-A336-FA0AFA6A6B16}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C4DEDF0A-76DA-43B5-A336-FA0AFA6A6B16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Fund Hedging</t>
   </si>
@@ -244,9 +244,6 @@
     <t>Co-Investments</t>
   </si>
   <si>
-    <t>Strategy/Currency</t>
-  </si>
-  <si>
     <t>Finance Cost ITD</t>
   </si>
   <si>
@@ -266,6 +263,18 @@
   </si>
   <si>
     <t>EUR</t>
+  </si>
+  <si>
+    <t>Override Currency</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>JPY</t>
   </si>
 </sst>
 </file>
@@ -273,8 +282,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -342,19 +351,19 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -364,6 +373,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -683,106 +705,129 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E9AB30-9C00-4DA9-B8B8-8591DD4EBC6B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46" style="2" customWidth="1"/>
-    <col min="9" max="9" width="28.1796875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.81640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="41.453125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="43.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="41.453125" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="12.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.21875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="22.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.77734375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="41.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="41.44140625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="43.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="41.44140625" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>70</v>
       </c>
+      <c r="R1" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Erk4vjQoRa/ftVMimliMCBVjXjuk4/Xnd2hALZOSCmmDJT+Ijk+RmzjQ8nM6qbRxvdtoOBMXJVF4oJI1dPjXlQ==" saltValue="/5XnAHD3skw9dpEflXca6Q==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sb8Wd6CrFxrk435Bsxj5nF+sIoUagyV2nBMvkG4APjSjWsutNXKuiEFHbaOu+VwqMvT2Hm4W/KFJEI0gkuWsLg==" saltValue="bqqcfI2Nq0I7BsS+ZxVHcw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <dataValidations count="6">
-    <dataValidation type="date" operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{D08F1287-6FDD-4FAF-A6E4-DE6D102FCAB3}">
+    <dataValidation type="date" operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{D08F1287-6FDD-4FAF-A6E4-DE6D102FCAB3}">
       <formula1>40909</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576 P2:P1048576 Q2:Q1048576 M2:M1048576" xr:uid="{036B4034-F449-4ED6-8518-CAFB951D49DA}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576 Q2:Q1048576 R2:R1048576 N2:N1048576" xr:uid="{036B4034-F449-4ED6-8518-CAFB951D49DA}">
       <formula1>-99999999999</formula1>
       <formula2>99999999999</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{6A740DF4-617F-45B1-AB9D-D59292EBC1EC}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{6A740DF4-617F-45B1-AB9D-D59292EBC1EC}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="G2:H1048576 D2:E1048576" xr:uid="{BF3B5D86-28C3-4CAD-8483-DF2A4EA30B61}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="H2:I1048576 E2:F1048576" xr:uid="{BF3B5D86-28C3-4CAD-8483-DF2A4EA30B61}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" errorStyle="information" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{B5386FCD-9C79-4616-9156-3C064D160E5B}">
+    <dataValidation type="decimal" errorStyle="information" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{B5386FCD-9C79-4616-9156-3C064D160E5B}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576 J2:J1048576 K2:K1048576 O2:O1048576" xr:uid="{E1AA2747-7A12-47ED-B962-D6D2B0DAED02}">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576 K2:K1048576 L2:L1048576 P2:P1048576" xr:uid="{E1AA2747-7A12-47ED-B962-D6D2B0DAED02}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -790,7 +835,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{714EBB59-5F74-4DA8-8E74-FF74DE9E9E8D}">
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$54</xm:f>
@@ -799,9 +844,15 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1BCD598B-5CD5-4EE4-91CD-864C18D74E4D}">
           <x14:formula1>
-            <xm:f>Sheet2!$B$1:$B$5</xm:f>
+            <xm:f>Sheet2!$B$1:$B$2</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E3054ACC-70E9-409A-8F2C-027545954C36}">
+          <x14:formula1>
+            <xm:f>Sheet2!$C$1:$C$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -812,299 +863,305 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC597C6-0D63-4585-B286-31FA7873C909}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>63</v>
       </c>
@@ -1115,22 +1172,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="e71fa759-47f8-4a70-96bd-5964b1ae8857">
-      <UserInfo>
-        <DisplayName>Jean Wai</DisplayName>
-        <AccountId>29</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Shubh Gosalia</DisplayName>
-        <AccountId>31</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1305,20 +1352,28 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="e71fa759-47f8-4a70-96bd-5964b1ae8857">
+      <UserInfo>
+        <DisplayName>Jean Wai</DisplayName>
+        <AccountId>29</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Shubh Gosalia</DisplayName>
+        <AccountId>31</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C53ECC68-04E7-452A-99A3-10030F701C32}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27D307A0-5037-428A-99CA-08384DEEE293}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e71fa759-47f8-4a70-96bd-5964b1ae8857"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1343,9 +1398,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27D307A0-5037-428A-99CA-08384DEEE293}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C53ECC68-04E7-452A-99A3-10030F701C32}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e71fa759-47f8-4a70-96bd-5964b1ae8857"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ArkWebApp/src/assets/files/templates/NavQuarterlyUploadTemplate.xlsx
+++ b/ArkWebApp/src/assets/files/templates/NavQuarterlyUploadTemplate.xlsx
@@ -5,13 +5,13 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rvanumamalai\source\repos\Ark-WebUI New\Ark-WebUI\ArkWebApp\src\assets\files\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rvanumamalai\Documents\SQL Server Management Studio\AC-379\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE88C657-C7B1-41F2-8972-9FC47E707AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="JSQko46+jU+85WVrn5UxPvUmaX0+Fv6Vzi5LAy5b/M2TP3umRVmCrOCUXY7YaHXv2yd3F7smlBVq+LYbgOpZiQ==" workbookSaltValue="jTPssRUY1nPF9TJYKk0SNw==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4375418C-0B88-499E-A788-C422CA8E2575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5HNAWO4E28XRrPb67oYf4tgxOTknr9pLTvHtDovVwkitrb7meLqE9Pw5nlX7A+/GVL/VCxuQ39YmKO6eX1bxRg==" workbookSaltValue="aLdH3xi2FjF7n7oZ2SLcYQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C4DEDF0A-76DA-43B5-A336-FA0AFA6A6B16}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{C4DEDF0A-76DA-43B5-A336-FA0AFA6A6B16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
   <si>
     <t>Fund Hedging</t>
   </si>
@@ -275,6 +275,33 @@
   </si>
   <si>
     <t>JPY</t>
+  </si>
+  <si>
+    <t>CHF</t>
+  </si>
+  <si>
+    <t>SEK</t>
+  </si>
+  <si>
+    <t>CIGNA</t>
+  </si>
+  <si>
+    <t>CS2FEUR</t>
+  </si>
+  <si>
+    <t>CS2FUSD</t>
+  </si>
+  <si>
+    <t>DL4COINV</t>
+  </si>
+  <si>
+    <t>DL4COINVEUR</t>
+  </si>
+  <si>
+    <t>SMA ILM</t>
+  </si>
+  <si>
+    <t>SMA SUMI</t>
   </si>
 </sst>
 </file>
@@ -340,9 +367,18 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -357,7 +393,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
@@ -387,6 +423,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{FE47A805-E6B0-429A-B510-90BB5F7B36AB}"/>
@@ -707,8 +744,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -809,7 +846,7 @@
       <c r="R2" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sb8Wd6CrFxrk435Bsxj5nF+sIoUagyV2nBMvkG4APjSjWsutNXKuiEFHbaOu+VwqMvT2Hm4W/KFJEI0gkuWsLg==" saltValue="bqqcfI2Nq0I7BsS+ZxVHcw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4FWK+4NLDQqths1/ACxByeQHivr9OmvqB/l3CEQxCvdktrlS63MzFNVfyP9PxmF8oWVoFlV7YFI7qc9JwgDSbw==" saltValue="bZ8AgdA15tM2GceFYTWSJw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <dataValidations count="6">
     <dataValidation type="date" operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{D08F1287-6FDD-4FAF-A6E4-DE6D102FCAB3}">
       <formula1>40909</formula1>
@@ -838,7 +875,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{714EBB59-5F74-4DA8-8E74-FF74DE9E9E8D}">
           <x14:formula1>
-            <xm:f>Sheet2!$A$1:$A$54</xm:f>
+            <xm:f>Sheet2!$A$1:$A$61</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -863,10 +900,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC597C6-0D63-4585-B286-31FA7873C909}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -875,7 +912,7 @@
     <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -885,8 +922,11 @@
       <c r="C1" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -896,82 +936,100 @@
       <c r="C2" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1164,6 +1222,41 @@
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="13" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1172,15 +1265,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010017EB258DADFA3746A36EC080AC089D83" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7ebb95de695edb82866e27aa90a207c8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5e1f9c12-bc96-4798-a342-bb349a93830a" xmlns:ns3="e71fa759-47f8-4a70-96bd-5964b1ae8857" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e86bd6f45c4d31b841dbab4160863d0" ns2:_="" ns3:_="">
     <xsd:import namespace="5e1f9c12-bc96-4798-a342-bb349a93830a"/>
@@ -1351,6 +1435,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1371,14 +1464,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27D307A0-5037-428A-99CA-08384DEEE293}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F57BD9C-43FE-499F-B6CD-EF500BF99DC9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1397,6 +1482,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27D307A0-5037-428A-99CA-08384DEEE293}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C53ECC68-04E7-452A-99A3-10030F701C32}">
   <ds:schemaRefs>

--- a/ArkWebApp/src/assets/files/templates/NavQuarterlyUploadTemplate.xlsx
+++ b/ArkWebApp/src/assets/files/templates/NavQuarterlyUploadTemplate.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgosalia\source\repos\Ark-WebUI\ArkWebApp\src\assets\files\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rvanumamalai\source\repos\Ark-WebUI New\Ark-WebUI\ArkWebApp\src\assets\files\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5D8753-077D-41B8-83CB-41A325963279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="g/KCQoD2L8NJHAkSVohXq1i/zgKhGt4/I7H5CrimIeGPPplxPAHvz3i7DE56jHThlyo8NRR/WOMQa9pRnt9Nbg==" workbookSaltValue="dm5O2aOcr3ootGB5Opp0sw==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC34F3C-81AF-452E-BF50-69A8F536227B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="YdQCXHQ1Qq3NN0TbLjkSz40eaXSpYptLdGcTpKta18aFryb/c3Rj8EhR5lfViyhQGJzh4Cvde2DiI4rkYA7HzA==" workbookSaltValue="RmWG4pw+5oZBvKuQHvdLWg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C4DEDF0A-76DA-43B5-A336-FA0AFA6A6B16}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{C4DEDF0A-76DA-43B5-A336-FA0AFA6A6B16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Fund Hedging</t>
   </si>
@@ -266,6 +266,27 @@
   </si>
   <si>
     <t>EUR</t>
+  </si>
+  <si>
+    <t>CIGNA</t>
+  </si>
+  <si>
+    <t>CS2FEUR</t>
+  </si>
+  <si>
+    <t>CS2FUSD</t>
+  </si>
+  <si>
+    <t>DL4COINV</t>
+  </si>
+  <si>
+    <t>DL4COINVEUR</t>
+  </si>
+  <si>
+    <t>SMA ILM</t>
+  </si>
+  <si>
+    <t>SMA SUMI</t>
   </si>
 </sst>
 </file>
@@ -273,8 +294,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -342,7 +363,7 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
@@ -354,7 +375,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -689,28 +710,28 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="46" style="2" customWidth="1"/>
-    <col min="9" max="9" width="28.1796875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.81640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="41.453125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="43.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="41.453125" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="8.81640625" style="1"/>
+    <col min="9" max="9" width="28.21875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.77734375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="41.44140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="43.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="41.44140625" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -764,7 +785,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Erk4vjQoRa/ftVMimliMCBVjXjuk4/Xnd2hALZOSCmmDJT+Ijk+RmzjQ8nM6qbRxvdtoOBMXJVF4oJI1dPjXlQ==" saltValue="/5XnAHD3skw9dpEflXca6Q==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="e3W4SiXBvTchNr6O5SknoMzAebLrvnnI0Non/sLk8Amsn8sZ+JB4iStMP8Pg7JgiMQ8Jb4FWtrNPp+Q5wiYjZA==" saltValue="3Aeeo6anTkdtqyJUtQW6jw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <dataValidations count="6">
     <dataValidation type="date" operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{D08F1287-6FDD-4FAF-A6E4-DE6D102FCAB3}">
       <formula1>40909</formula1>
@@ -793,7 +814,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{714EBB59-5F74-4DA8-8E74-FF74DE9E9E8D}">
           <x14:formula1>
-            <xm:f>Sheet2!$A$1:$A$54</xm:f>
+            <xm:f>Sheet2!$A$1:$A$61</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -812,19 +833,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC597C6-0D63-4585-B286-31FA7873C909}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -832,7 +853,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -840,7 +861,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -848,7 +869,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -856,7 +877,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -864,249 +885,284 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1115,25 +1171,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="e71fa759-47f8-4a70-96bd-5964b1ae8857">
-      <UserInfo>
-        <DisplayName>Jean Wai</DisplayName>
-        <AccountId>29</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Shubh Gosalia</DisplayName>
-        <AccountId>31</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010017EB258DADFA3746A36EC080AC089D83" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7ebb95de695edb82866e27aa90a207c8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5e1f9c12-bc96-4798-a342-bb349a93830a" xmlns:ns3="e71fa759-47f8-4a70-96bd-5964b1ae8857" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e86bd6f45c4d31b841dbab4160863d0" ns2:_="" ns3:_="">
     <xsd:import namespace="5e1f9c12-bc96-4798-a342-bb349a93830a"/>
@@ -1304,6 +1341,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="e71fa759-47f8-4a70-96bd-5964b1ae8857">
+      <UserInfo>
+        <DisplayName>Jean Wai</DisplayName>
+        <AccountId>29</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Shubh Gosalia</DisplayName>
+        <AccountId>31</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1314,16 +1370,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C53ECC68-04E7-452A-99A3-10030F701C32}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e71fa759-47f8-4a70-96bd-5964b1ae8857"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F57BD9C-43FE-499F-B6CD-EF500BF99DC9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1342,6 +1388,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C53ECC68-04E7-452A-99A3-10030F701C32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e71fa759-47f8-4a70-96bd-5964b1ae8857"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27D307A0-5037-428A-99CA-08384DEEE293}">
   <ds:schemaRefs>

--- a/ArkWebApp/src/assets/files/templates/NavQuarterlyUploadTemplate.xlsx
+++ b/ArkWebApp/src/assets/files/templates/NavQuarterlyUploadTemplate.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rvanumamalai\Documents\SQL Server Management Studio\AC-379\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rvanumamalai\source\repos\Ark-WebUI New\Ark-WebUI\ArkWebApp\src\assets\files\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4375418C-0B88-499E-A788-C422CA8E2575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5HNAWO4E28XRrPb67oYf4tgxOTknr9pLTvHtDovVwkitrb7meLqE9Pw5nlX7A+/GVL/VCxuQ39YmKO6eX1bxRg==" workbookSaltValue="aLdH3xi2FjF7n7oZ2SLcYQ==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954A5F5C-B017-4A80-936C-F82E0C979A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Yx1q4o1BkIXou/AoFH/a5UACtGmtogtTTximr2qFBt9/BKorPruoCb8vfva+a9KJLpdb76+lTzwnYBFl5ZueSA==" workbookSaltValue="dbdhjBguXaNRzIzChjubuQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{C4DEDF0A-76DA-43B5-A336-FA0AFA6A6B16}"/>
   </bookViews>
@@ -745,7 +745,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -846,7 +846,7 @@
       <c r="R2" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4FWK+4NLDQqths1/ACxByeQHivr9OmvqB/l3CEQxCvdktrlS63MzFNVfyP9PxmF8oWVoFlV7YFI7qc9JwgDSbw==" saltValue="bZ8AgdA15tM2GceFYTWSJw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rFyyJ2sYEK+MX2ihwFIONx9UZNa5ry7qxgj+N2IAIVAPpdKBLF23P1G1fS5pjRIeWB+V8Dwov4NLb8lIVnBNWA==" saltValue="6ULMooptVzj7RCwQTOp9Lg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <dataValidations count="6">
     <dataValidation type="date" operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{D08F1287-6FDD-4FAF-A6E4-DE6D102FCAB3}">
       <formula1>40909</formula1>
@@ -887,7 +887,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E3054ACC-70E9-409A-8F2C-027545954C36}">
           <x14:formula1>
-            <xm:f>Sheet2!$C$1:$C$5</xm:f>
+            <xm:f>Sheet2!$D$1:$D$7</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
@@ -902,7 +902,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
@@ -1265,6 +1265,34 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="e71fa759-47f8-4a70-96bd-5964b1ae8857">
+      <UserInfo>
+        <DisplayName>Jean Wai</DisplayName>
+        <AccountId>29</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Shubh Gosalia</DisplayName>
+        <AccountId>31</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010017EB258DADFA3746A36EC080AC089D83" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7ebb95de695edb82866e27aa90a207c8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5e1f9c12-bc96-4798-a342-bb349a93830a" xmlns:ns3="e71fa759-47f8-4a70-96bd-5964b1ae8857" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e86bd6f45c4d31b841dbab4160863d0" ns2:_="" ns3:_="">
     <xsd:import namespace="5e1f9c12-bc96-4798-a342-bb349a93830a"/>
@@ -1435,35 +1463,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C53ECC68-04E7-452A-99A3-10030F701C32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e71fa759-47f8-4a70-96bd-5964b1ae8857"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="e71fa759-47f8-4a70-96bd-5964b1ae8857">
-      <UserInfo>
-        <DisplayName>Jean Wai</DisplayName>
-        <AccountId>29</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Shubh Gosalia</DisplayName>
-        <AccountId>31</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27D307A0-5037-428A-99CA-08384DEEE293}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F57BD9C-43FE-499F-B6CD-EF500BF99DC9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1480,22 +1498,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27D307A0-5037-428A-99CA-08384DEEE293}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C53ECC68-04E7-452A-99A3-10030F701C32}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e71fa759-47f8-4a70-96bd-5964b1ae8857"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ArkWebApp/src/assets/files/templates/NavQuarterlyUploadTemplate.xlsx
+++ b/ArkWebApp/src/assets/files/templates/NavQuarterlyUploadTemplate.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rvanumamalai\source\repos\Ark-WebUI New\Ark-WebUI\ArkWebApp\src\assets\files\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954A5F5C-B017-4A80-936C-F82E0C979A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Yx1q4o1BkIXou/AoFH/a5UACtGmtogtTTximr2qFBt9/BKorPruoCb8vfva+a9KJLpdb76+lTzwnYBFl5ZueSA==" workbookSaltValue="dbdhjBguXaNRzIzChjubuQ==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D734428F-0485-4149-B864-AB8DDBC4882D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="ubWoHni5nAVAeY6zs2mwarbOdkh4+p9/55Y2B51ZxM/HThZ1DdHaPxV0kwwzUVr2LOntG4Uyvq9WGwsgOvSlbQ==" workbookSaltValue="YWounfiIVYWMwsj72rAwOQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{C4DEDF0A-76DA-43B5-A336-FA0AFA6A6B16}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C4DEDF0A-76DA-43B5-A336-FA0AFA6A6B16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
@@ -409,19 +409,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -742,10 +729,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E9AB30-9C00-4DA9-B8B8-8591DD4EBC6B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -826,45 +813,26 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rFyyJ2sYEK+MX2ihwFIONx9UZNa5ry7qxgj+N2IAIVAPpdKBLF23P1G1fS5pjRIeWB+V8Dwov4NLb8lIVnBNWA==" saltValue="6ULMooptVzj7RCwQTOp9Lg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3FhMqWCh01Ejvi4WHO/NKXs+0oqw22pi3QELNBIaxEGpCKMbbXepocAP949sVHFtP26A30WUbp6LDHtTYNgE9Q==" saltValue="Zlc8S1uoG4PgCBKbxXakuw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <dataValidations count="6">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="H2:I1048576 E2:F1048576" xr:uid="{BF3B5D86-28C3-4CAD-8483-DF2A4EA30B61}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:M1048576 P2:P1048576" xr:uid="{E1AA2747-7A12-47ED-B962-D6D2B0DAED02}">
+      <formula1>0</formula1>
+    </dataValidation>
     <dataValidation type="date" operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{D08F1287-6FDD-4FAF-A6E4-DE6D102FCAB3}">
       <formula1>40909</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576 Q2:Q1048576 R2:R1048576 N2:N1048576" xr:uid="{036B4034-F449-4ED6-8518-CAFB951D49DA}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:R1048576 N2:O1048576" xr:uid="{036B4034-F449-4ED6-8518-CAFB951D49DA}">
       <formula1>-99999999999</formula1>
       <formula2>99999999999</formula2>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{6A740DF4-617F-45B1-AB9D-D59292EBC1EC}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="H2:I1048576 E2:F1048576" xr:uid="{BF3B5D86-28C3-4CAD-8483-DF2A4EA30B61}">
-      <formula1>0</formula1>
-    </dataValidation>
     <dataValidation type="decimal" errorStyle="information" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{B5386FCD-9C79-4616-9156-3C064D160E5B}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576 K2:K1048576 L2:L1048576 P2:P1048576" xr:uid="{E1AA2747-7A12-47ED-B962-D6D2B0DAED02}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -1225,37 +1193,37 @@
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="8" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="8" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1265,34 +1233,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="e71fa759-47f8-4a70-96bd-5964b1ae8857">
-      <UserInfo>
-        <DisplayName>Jean Wai</DisplayName>
-        <AccountId>29</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Shubh Gosalia</DisplayName>
-        <AccountId>31</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010017EB258DADFA3746A36EC080AC089D83" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7ebb95de695edb82866e27aa90a207c8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5e1f9c12-bc96-4798-a342-bb349a93830a" xmlns:ns3="e71fa759-47f8-4a70-96bd-5964b1ae8857" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e86bd6f45c4d31b841dbab4160863d0" ns2:_="" ns3:_="">
     <xsd:import namespace="5e1f9c12-bc96-4798-a342-bb349a93830a"/>
@@ -1463,25 +1403,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C53ECC68-04E7-452A-99A3-10030F701C32}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e71fa759-47f8-4a70-96bd-5964b1ae8857"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27D307A0-5037-428A-99CA-08384DEEE293}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="e71fa759-47f8-4a70-96bd-5964b1ae8857">
+      <UserInfo>
+        <DisplayName>Jean Wai</DisplayName>
+        <AccountId>29</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Shubh Gosalia</DisplayName>
+        <AccountId>31</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F57BD9C-43FE-499F-B6CD-EF500BF99DC9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1498,4 +1448,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27D307A0-5037-428A-99CA-08384DEEE293}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C53ECC68-04E7-452A-99A3-10030F701C32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e71fa759-47f8-4a70-96bd-5964b1ae8857"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>